--- a/invoice-ai/backend/temp/invoices_export.xlsx
+++ b/invoice-ai/backend/temp/invoices_export.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,10 +431,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="26" customWidth="1" min="5" max="5"/>
+    <col width="33" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
@@ -507,6 +507,55 @@
         <v>28</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INV-CAR-2025-011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Volga Auto Imports LLC (Russia)</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>180000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Eurasia Trade Corp (Russia)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>267500</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/invoice-ai/backend/temp/invoices_export.xlsx
+++ b/invoice-ai/backend/temp/invoices_export.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,10 +431,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="14" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
@@ -482,78 +482,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INV-2025-2048</t>
+          <t>14623</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-11-10</t>
-        </is>
-      </c>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Volga Trade LLC (Russia)</t>
+          <t>Eurasia Trade Corp (Russia)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>280</v>
+        <v>287895</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>INV-CAR-2025-011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-10-20</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-11-20</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Volga Auto Imports LLC (Russia)</t>
+          <t>Eurasia Trade Corp (Russia)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>180000</v>
+        <v>289275</v>
       </c>
       <c r="G3" t="n">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Eurasia Trade Corp (Russia)</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>267500</v>
-      </c>
-      <c r="G4" t="n">
-        <v>26750</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
